--- a/Tabela de Pessoas.xlsx
+++ b/Tabela de Pessoas.xlsx
@@ -497,7 +497,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyerrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrr</t>
+          <t>joão P Santos</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ereteryeyey</t>
+          <t>dsdh@gmm.com.br</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>rrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrr</t>
+          <t>Mario Veloso Serqueira</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/Tabela de Pessoas.xlsx
+++ b/Tabela de Pessoas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,112 +440,844 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Tel</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Idade</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Genero</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Rua</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Numero</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Complemento</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Bairro</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Cidade</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>UF</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>joão P Santos</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11912345678</t>
+          <t>joão P Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>dsdh@gmm.com.br</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mario Veloso Serqueira</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>43</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Carlos Drummord Andrade</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Carlos Drummord Andrade</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>43</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>43</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>43</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>43</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>43</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>43</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>43</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>43</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>43</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>43</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>43</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>RN</t>
         </is>

--- a/Tabela de Pessoas.xlsx
+++ b/Tabela de Pessoas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,30 +470,35 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
+          <t>Cep</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Rua</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Numero</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Complemento</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Bairro</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Cidade</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>UF</t>
         </is>
@@ -528,28 +533,33 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Mario Veloso Serqueira</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>43</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Carlos Drummord Andrade</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Caracas</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>RN</t>
         </is>
@@ -584,28 +594,33 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Mario Veloso Serqueira</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>43</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Carlos Drummord Andrade</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Caracas</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>RN</t>
         </is>
@@ -617,55 +632,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joão P Santos</t>
+          <t>hkjhashjkasf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11912345678</t>
+          <t>aasfafa</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
+          <t>asfafas</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>43</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
+          <t>2432422423</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>rwerwe</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Carlos Drummord Andrade</t>
+          <t>f</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>dgfdgdf</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>RN</t>
-        </is>
-      </c>
+          <t>fd</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -673,55 +685,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joão P Santos</t>
+          <t>hkjhashjkasf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11912345678</t>
+          <t>aasfafa</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
+          <t>asfafas</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>43</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
+          <t>2432422423</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>rwerwe</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Carlos Drummord Andrade</t>
+          <t>f</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>dgfdgdf</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>RN</t>
-        </is>
-      </c>
+          <t>fd</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -752,28 +761,33 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Mario Veloso Serqueira</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>43</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Carlos Drummord Andrade</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Caracas</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>RN</t>
         </is>
@@ -808,30 +822,35 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Mario Veloso Serqueira</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>43</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Carlos Drummord Andrade</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>RN</t>
+          <t>retertert</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -841,12 +860,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joão P Santos</t>
+          <t xml:space="preserve">Refael de souza santos </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11912345678</t>
+          <t>11911252266</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -854,432 +873,41 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
+          <t>hfkjhsj@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>43</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
+          <t>06666001</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>alameda chaves</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>36</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Carlos Drummord Andrade</t>
+          <t>d</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>cardoso</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>RN</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>joão P Santos</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>11912345678</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>25</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>43</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Carlos Drummord Andrade</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>RN</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>joão P Santos</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>11912345678</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>43</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Carlos Drummord Andrade</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>RN</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>joão P Santos</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>11912345678</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>43</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Carlos Drummord Andrade</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>RN</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>joão P Santos</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>11912345678</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>43</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Carlos Drummord Andrade</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>RN</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>joão P Santos</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>11912345678</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>25</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>43</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Carlos Drummord Andrade</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>RN</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>joão P Santos</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>11912345678</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>25</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>43</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Carlos Drummord Andrade</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>RN</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>joão P Santos</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>11912345678</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>25</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>dsdh@gmm.com.br</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Mario Veloso Serqueira</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>43</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Carlos Drummord Andrade</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>RN</t>
+          <t>itaperada</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>cn</t>
         </is>
       </c>
     </row>

--- a/Tabela de Pessoas.xlsx
+++ b/Tabela de Pessoas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,6 +911,843 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>43</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>43</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>43</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>43</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>43</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>43</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>43</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>43</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>25</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>43</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>43</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>25</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>43</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>25</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>43</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>25</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>43</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>43</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>43</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tabela de Pessoas.xlsx
+++ b/Tabela de Pessoas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,6 +1748,283 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">joão </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>43</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>43</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>joão</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>43</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">joão </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>43</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>25</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tabela de Pessoas.xlsx
+++ b/Tabela de Pessoas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2025,6 +2025,555 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>43</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>25</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>43</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>asdasdasdasdasdasd</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>43</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>43</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Joao de souza cruz</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1961226556</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>43</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1191234567</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>25</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>43</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1191234567</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>25</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>43</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>43</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>joão P Santos</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>11123456789</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>25</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>dsdh@gmm.com.br</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>06666000</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Mario Veloso Serqueira</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>43</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Carlos Drummord Andrade</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
